--- a/CTCAEAE.xlsx
+++ b/CTCAEAE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachariasawaged/Desktop/itp/Final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222DE8C8-60A5-6649-A1CA-82A96EFB325A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9F579-6640-754B-951B-0DC65D883827}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
   <si>
     <t>Definition</t>
   </si>
@@ -332,6 +332,90 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>Fever_min_</t>
+  </si>
+  <si>
+    <t>Fever_min1</t>
+  </si>
+  <si>
+    <t>Fever_min2</t>
+  </si>
+  <si>
+    <t>Fever_min3</t>
+  </si>
+  <si>
+    <t>Alanine aminotransferase increased_min_</t>
+  </si>
+  <si>
+    <t>Alanine aminotransferase increased_min1</t>
+  </si>
+  <si>
+    <t>Alanine aminotransferase increased_min2</t>
+  </si>
+  <si>
+    <t>Alanine aminotransferase increased_min3</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase increased_min_</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase increased_min1</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase increased_min2</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase increased_min3</t>
+  </si>
+  <si>
+    <t>Hyponatremia_min_</t>
+  </si>
+  <si>
+    <t>Hyponatremia_min1</t>
+  </si>
+  <si>
+    <t>Hyponatremia_min2</t>
+  </si>
+  <si>
+    <t>Hyponatremia_min3</t>
+  </si>
+  <si>
+    <t>Hypernatremia_min_</t>
+  </si>
+  <si>
+    <t>Hypernatremia_min1</t>
+  </si>
+  <si>
+    <t>Hypernatremia_min2</t>
+  </si>
+  <si>
+    <t>Hypernatremia_min3</t>
+  </si>
+  <si>
+    <t>Platelet count decreased_min_</t>
+  </si>
+  <si>
+    <t>Platelet count decreased_min1</t>
+  </si>
+  <si>
+    <t>Platelet count decreased_min2</t>
+  </si>
+  <si>
+    <t>Platelet count decreased_min3</t>
+  </si>
+  <si>
+    <t>Electrocardiogram QT corrected interval prolonged_min_</t>
+  </si>
+  <si>
+    <t>Electrocardiogram QT corrected interval prolonged_min1</t>
+  </si>
+  <si>
+    <t>Electrocardiogram QT corrected interval prolonged_min2</t>
+  </si>
+  <si>
+    <t>Electrocardiogram QT corrected interval prolonged_min3</t>
   </si>
 </sst>
 </file>
@@ -763,7 +847,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1494,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D806E680-7EF7-8F46-89E7-5EB57E908C02}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1638,7 +1722,7 @@
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B18" s="7">
         <v>38</v>
@@ -1646,7 +1730,7 @@
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B19" s="7">
         <v>39</v>
@@ -1654,7 +1738,7 @@
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B20" s="7">
         <v>40</v>
@@ -1662,7 +1746,7 @@
     </row>
     <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B21" s="7">
         <v>43</v>
@@ -1670,7 +1754,7 @@
     </row>
     <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B22" s="7">
         <v>51</v>
@@ -1678,7 +1762,7 @@
     </row>
     <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B23" s="7">
         <v>153</v>
@@ -1686,7 +1770,7 @@
     </row>
     <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B24" s="7">
         <v>255</v>
@@ -1694,7 +1778,7 @@
     </row>
     <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B25" s="5">
         <v>1020</v>
@@ -1702,7 +1786,7 @@
     </row>
     <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B26" s="7">
         <v>59</v>
@@ -1710,7 +1794,7 @@
     </row>
     <row r="27" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B27" s="7">
         <v>177</v>
@@ -1718,7 +1802,7 @@
     </row>
     <row r="28" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B28" s="7">
         <v>295</v>
@@ -1726,7 +1810,7 @@
     </row>
     <row r="29" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B29" s="5">
         <v>1180</v>
@@ -1734,7 +1818,7 @@
     </row>
     <row r="30" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B30" s="5">
         <v>137</v>
@@ -1742,7 +1826,7 @@
     </row>
     <row r="31" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5">
         <v>125</v>
@@ -1750,7 +1834,7 @@
     </row>
     <row r="32" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B32" s="7">
         <v>129</v>
@@ -1758,7 +1842,7 @@
     </row>
     <row r="33" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5">
         <v>120</v>
@@ -1766,7 +1850,7 @@
     </row>
     <row r="34" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B34" s="5">
         <v>141</v>
@@ -1774,7 +1858,7 @@
     </row>
     <row r="35" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B35" s="7">
         <v>150</v>
@@ -1782,7 +1866,7 @@
     </row>
     <row r="36" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B36" s="7">
         <v>155</v>
@@ -1790,7 +1874,7 @@
     </row>
     <row r="37" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B37" s="7">
         <v>160</v>
@@ -1798,7 +1882,7 @@
     </row>
     <row r="38" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7">
         <v>150</v>
@@ -1806,7 +1890,7 @@
     </row>
     <row r="39" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B39" s="7">
         <v>75</v>
@@ -1814,7 +1898,7 @@
     </row>
     <row r="40" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B40" s="7">
         <v>50</v>
@@ -1822,7 +1906,7 @@
     </row>
     <row r="41" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B41" s="7">
         <v>25</v>
@@ -1830,7 +1914,7 @@
     </row>
     <row r="42" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B42" s="5">
         <v>450</v>
@@ -1838,7 +1922,7 @@
     </row>
     <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B43" s="5">
         <v>481</v>
@@ -1846,7 +1930,7 @@
     </row>
     <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B44" s="5">
         <v>500</v>
@@ -1854,7 +1938,7 @@
     </row>
     <row r="45" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B45" s="7">
         <v>600</v>
